--- a/Allocation/Footlocker.Logistics.Allocation/Content/Templates/ProductTypeTemplate.xlsx
+++ b/Allocation/Footlocker.Logistics.Allocation/Content/Templates/ProductTypeTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://footlocker-my.sharepoint.com/personal/u695130_footlocker_com/Documents/Documents/Working Copy Code/Allocation/Development/XLS Upgrade/Allocation/Footlocker.Logistics.Allocation/Content/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{76BE8727-529C-4B50-BF69-017281F282DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD4141C-0C45-4F86-9C77-2EE5DA82ED0C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{76BE8727-529C-4B50-BF69-017281F282DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5566F619-2096-427A-9889-EF94BD83FEAB}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="2535" windowWidth="28125" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="2850" windowWidth="28125" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -955,21 +957,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="4" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
